--- a/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61D57CBA-28D6-4945-A0FA-6E8CC72DD690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FD66E6-AB56-4551-8488-D412F1C5A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{99C6E447-2795-4EC0-9971-5F253F0BE28F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96A26BBB-605B-431A-999C-F4367F3D753A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -110,7 +110,7 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>3,69%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -119,28 +119,28 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,29%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>96,31%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,66%</t>
+    <t>97,71%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -149,10 +149,10 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -161,187 +161,193 @@
     <t>0,48%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
+    <t>98,04%</t>
   </si>
   <si>
     <t>99,05%</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EE81B6-40C2-4FD6-B9A2-DF49C2700312}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B9131C-BA9F-4613-B795-C8203969C2B5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1351,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1360,10 +1366,10 @@
         <v>3258</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>60</v>
@@ -1399,7 +1405,7 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1411,13 +1417,13 @@
         <v>351137</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>794</v>
@@ -1530,13 +1536,13 @@
         <v>14684</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,13 +1557,13 @@
         <v>421041</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>650</v>
@@ -1566,13 +1572,13 @@
         <v>500544</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1073</v>
@@ -1581,13 +1587,13 @@
         <v>921585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,13 +1661,13 @@
         <v>8856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -1670,13 +1676,13 @@
         <v>21465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -1685,13 +1691,13 @@
         <v>30320</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,10 +1712,10 @@
         <v>1507746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -1721,13 +1727,13 @@
         <v>1661821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>3791</v>
@@ -1736,13 +1742,13 @@
         <v>3169568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,7 +1804,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FD66E6-AB56-4551-8488-D412F1C5A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3795AEDC-6BCE-4750-A54C-4525805E52D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{96A26BBB-605B-431A-999C-F4367F3D753A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7357F20B-DB56-4025-9BEF-1F766D7202B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -155,7 +155,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,48%</t>
@@ -206,7 +206,7 @@
     <t>99,7%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,6%</t>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B9131C-BA9F-4613-B795-C8203969C2B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E6E95-EB43-4420-95A8-BE5ED7249197}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3795AEDC-6BCE-4750-A54C-4525805E52D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F022C609-12AE-414F-9EED-4197FF1F88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7357F20B-DB56-4025-9BEF-1F766D7202B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC474720-B885-4FAD-9777-5287966D7F52}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -110,7 +110,7 @@
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,69%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -119,28 +119,28 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,29%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>96,31%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,71%</t>
+    <t>97,66%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -149,10 +149,10 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -161,96 +161,96 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,57%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -260,31 +260,28 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>1,82%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,18%</t>
+    <t>97,99%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -293,61 +290,58 @@
     <t>97,68%</t>
   </si>
   <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
     <t>99,42%</t>
   </si>
   <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>99,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -762,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7E6E95-EB43-4420-95A8-BE5ED7249197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCBBDB0-328A-4D00-87E1-D998DEED8537}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1357,7 +1351,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -1366,10 +1360,10 @@
         <v>3258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>60</v>
@@ -1405,7 +1399,7 @@
         <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1417,13 +1411,13 @@
         <v>351137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>794</v>
@@ -1536,13 +1530,13 @@
         <v>14684</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,13 +1551,13 @@
         <v>421041</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>650</v>
@@ -1572,13 +1566,13 @@
         <v>500544</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>1073</v>
@@ -1587,13 +1581,13 @@
         <v>921585</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1661,13 +1655,13 @@
         <v>8856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>32</v>
@@ -1676,13 +1670,13 @@
         <v>21465</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M19" s="7">
         <v>40</v>
@@ -1691,13 +1685,13 @@
         <v>30320</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,10 +1706,10 @@
         <v>1507746</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>38</v>
@@ -1727,13 +1721,13 @@
         <v>1661821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>3791</v>
@@ -1742,13 +1736,13 @@
         <v>3169568</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,7 +1798,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21D_6_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F022C609-12AE-414F-9EED-4197FF1F88CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1210B499-8E06-45D4-92BE-870CD2BA53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC474720-B885-4FAD-9777-5287966D7F52}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1B9F2E79-4208-46E2-BACF-A4C120090E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>Población que, necesitando atención fisioterapéutica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -65,283 +65,259 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
   </si>
   <si>
     <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -756,8 +732,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCBBDB0-328A-4D00-87E1-D998DEED8537}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC81908-044B-4B0F-BECD-6AACC5B0E4C8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -874,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -889,85 +865,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2266</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>4022</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="D5" s="7">
-        <v>53394</v>
+        <v>264843</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>90</v>
+        <v>511</v>
       </c>
       <c r="I5" s="7">
-        <v>48522</v>
+        <v>296863</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>150</v>
+        <v>804</v>
       </c>
       <c r="N5" s="7">
-        <v>101915</v>
+        <v>561705</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -976,153 +952,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D6" s="7">
-        <v>53394</v>
+        <v>266599</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>90</v>
+        <v>515</v>
       </c>
       <c r="I6" s="7">
-        <v>48522</v>
+        <v>299129</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>809</v>
       </c>
       <c r="N6" s="7">
-        <v>101915</v>
+        <v>565727</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1733</v>
+        <v>2276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>2428</v>
+        <v>3699</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>4161</v>
+        <v>5975</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>233</v>
+        <v>423</v>
       </c>
       <c r="D8" s="7">
-        <v>216776</v>
+        <v>655334</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>421</v>
+        <v>697</v>
       </c>
       <c r="I8" s="7">
-        <v>268809</v>
+        <v>443073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>654</v>
+        <v>1120</v>
       </c>
       <c r="N8" s="7">
-        <v>485585</v>
+        <v>1098407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1131,54 +1107,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>234</v>
+        <v>425</v>
       </c>
       <c r="D9" s="7">
-        <v>218509</v>
+        <v>657610</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>425</v>
+        <v>704</v>
       </c>
       <c r="I9" s="7">
-        <v>271237</v>
+        <v>446772</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>659</v>
+        <v>1129</v>
       </c>
       <c r="N9" s="7">
-        <v>489746</v>
+        <v>1104382</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1187,97 +1163,97 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2324</v>
+        <v>1881</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
+        <v>5</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3014</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="7">
         <v>7</v>
       </c>
-      <c r="I10" s="7">
-        <v>3874</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
       <c r="N10" s="7">
-        <v>6197</v>
+        <v>4895</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>423</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>483530</v>
+        <v>327927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>697</v>
+        <v>483</v>
       </c>
       <c r="I11" s="7">
-        <v>492810</v>
+        <v>325810</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
-        <v>1120</v>
+        <v>794</v>
       </c>
       <c r="N11" s="7">
-        <v>976342</v>
+        <v>653737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,153 +1262,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="D12" s="7">
-        <v>485854</v>
+        <v>329808</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>704</v>
+        <v>488</v>
       </c>
       <c r="I12" s="7">
-        <v>496684</v>
+        <v>328824</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1129</v>
+        <v>801</v>
       </c>
       <c r="N12" s="7">
-        <v>982539</v>
+        <v>658632</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>2019</v>
+        <v>2685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>3258</v>
+        <v>10942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>5277</v>
+        <v>13627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>311</v>
+        <v>423</v>
       </c>
       <c r="D14" s="7">
-        <v>333005</v>
+        <v>405268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
-        <v>483</v>
+        <v>650</v>
       </c>
       <c r="I14" s="7">
-        <v>351137</v>
+        <v>507000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>794</v>
+        <v>1073</v>
       </c>
       <c r="N14" s="7">
-        <v>684142</v>
+        <v>912268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,153 +1417,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="D15" s="7">
-        <v>335024</v>
+        <v>407953</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>488</v>
+        <v>666</v>
       </c>
       <c r="I15" s="7">
-        <v>354395</v>
+        <v>517942</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>801</v>
+        <v>1092</v>
       </c>
       <c r="N15" s="7">
-        <v>689419</v>
+        <v>925895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>2780</v>
+        <v>8597</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I16" s="7">
-        <v>11904</v>
+        <v>19921</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N16" s="7">
-        <v>14684</v>
+        <v>28518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>423</v>
+        <v>1450</v>
       </c>
       <c r="D17" s="7">
-        <v>421041</v>
+        <v>1653372</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>650</v>
+        <v>2341</v>
       </c>
       <c r="I17" s="7">
-        <v>500544</v>
+        <v>1572746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>1073</v>
+        <v>3791</v>
       </c>
       <c r="N17" s="7">
-        <v>921585</v>
+        <v>3226118</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,217 +1572,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>426</v>
+        <v>1458</v>
       </c>
       <c r="D18" s="7">
-        <v>423821</v>
+        <v>1661969</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>666</v>
+        <v>2373</v>
       </c>
       <c r="I18" s="7">
-        <v>512448</v>
+        <v>1592667</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1092</v>
+        <v>3831</v>
       </c>
       <c r="N18" s="7">
-        <v>936269</v>
+        <v>3254636</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>8856</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="7">
-        <v>32</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21465</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M19" s="7">
-        <v>40</v>
-      </c>
-      <c r="N19" s="7">
-        <v>30320</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1450</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1507746</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2341</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1661821</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3791</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3169568</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1458</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1516602</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2373</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1683286</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3831</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3199888</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
